--- a/assets/buku_adm_umum/buku_peraturan_desa.xlsx
+++ b/assets/buku_adm_umum/buku_peraturan_desa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\xampp\htdocs\newsid\assets\buku_adm_umum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E24C124-8BEE-444D-B2DF-FAF12F5ECDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4E990-790F-42DD-841B-2430D0539DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7091E89-EEE6-4309-89F5-3DDD62C821F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10220D4-973A-404E-982D-BDB440BC5E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>NOMOR</t>
-  </si>
-  <si>
-    <t>URUT</t>
-  </si>
-  <si>
-    <t>JENIS</t>
-  </si>
-  <si>
-    <t>PERATURAN</t>
-  </si>
-  <si>
-    <t>DESA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NOMOR DAN TANGGAL DITETAPKAN</t>
   </si>
@@ -51,56 +36,44 @@
     <t>URAIAN SINGKAT</t>
   </si>
   <si>
-    <t>TANGGAL KESEPAKATAN PERATURAN DESA</t>
-  </si>
-  <si>
     <t>NOMOR DAN TANGGAL DILAPORKAN</t>
   </si>
   <si>
     <t>NOMOR DAN TANGGAL DIUNDANGKAN DALAM LEMBARAN DESA</t>
   </si>
   <si>
-    <t>NOMOR DAN TANGGAL DIUNDANGKAN DALAM BERITA BESAR</t>
-  </si>
-  <si>
     <t>KET.</t>
   </si>
   <si>
-    <t>${no}</t>
-  </si>
-  <si>
-    <t>${jenis_peraturan_desa}</t>
-  </si>
-  <si>
-    <t>${no_ditetapkan}, ${tgl_ditetapkan},</t>
-  </si>
-  <si>
-    <t>${tentang}</t>
-  </si>
-  <si>
-    <t>${uraian_singkat}</t>
-  </si>
-  <si>
-    <t>${tgl_kesepakatan_peraturan_desa}</t>
-  </si>
-  <si>
-    <t>${no_dilaporkan}, ${tgl_dilaporkan}</t>
-  </si>
-  <si>
-    <t>${no_diundangkan_dalam_lembaran_desa}, ${tgl_diundangkan_dalam_lembaran_desa}</t>
-  </si>
-  <si>
-    <t>${no_diundangkan_dalam_berita_desa}, ${tgl_diundangkan_dalam_berita_desa}</t>
-  </si>
-  <si>
-    <t>${ket}</t>
+    <t>NOMOR URUT</t>
+  </si>
+  <si>
+    <t>JENIS PERATURAN DI DESA</t>
+  </si>
+  <si>
+    <t>TANGGAL KESEPAKAN PERATURAN DESA</t>
+  </si>
+  <si>
+    <t>NOMOR DAN TANGGAL DIUNDANGKAN DALAM BERITA DESA</t>
+  </si>
+  <si>
+    <t>PEMERINTAH KABUPATEN PRINGSEWU</t>
+  </si>
+  <si>
+    <t>KECAMATAN GADINGREJO</t>
+  </si>
+  <si>
+    <t>PEKON WONODADI</t>
+  </si>
+  <si>
+    <t>Alamat : Jln. Raden Intan No. 393  Wonodadi Kec. Gadingrejo, Kab. Pringsewu    Kode Pos 35372</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +87,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,69 +119,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -203,39 +146,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -253,6 +186,127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05839692-AE49-462A-B42D-A071954787B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="266700" y="53340"/>
+          <a:ext cx="678180" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB97FB6-D8B0-4135-B237-126E7716904E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="1516380"/>
+          <a:ext cx="10043160" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,121 +605,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B228867-68F2-47F9-86FF-A3E15F599A74}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D5EE49-2923-40CE-BDDB-D9F424F5CDE1}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="K6" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/buku_adm_umum/buku_peraturan_desa.xlsx
+++ b/assets/buku_adm_umum/buku_peraturan_desa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\xampp\htdocs\newsid\assets\buku_adm_umum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F4E990-790F-42DD-841B-2430D0539DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B360F7-8F0E-4938-B6A7-A88AD02CD4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D10220D4-973A-404E-982D-BDB440BC5E1D}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>NOMOR DAN TANGGAL DITETAPKAN</t>
-  </si>
-  <si>
-    <t>TENTANG</t>
-  </si>
-  <si>
-    <t>URAIAN SINGKAT</t>
-  </si>
-  <si>
-    <t>NOMOR DAN TANGGAL DILAPORKAN</t>
-  </si>
-  <si>
-    <t>NOMOR DAN TANGGAL DIUNDANGKAN DALAM LEMBARAN DESA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>KET.</t>
   </si>
@@ -48,15 +33,6 @@
     <t>NOMOR URUT</t>
   </si>
   <si>
-    <t>JENIS PERATURAN DI DESA</t>
-  </si>
-  <si>
-    <t>TANGGAL KESEPAKAN PERATURAN DESA</t>
-  </si>
-  <si>
-    <t>NOMOR DAN TANGGAL DIUNDANGKAN DALAM BERITA DESA</t>
-  </si>
-  <si>
     <t>PEMERINTAH KABUPATEN PRINGSEWU</t>
   </si>
   <si>
@@ -67,13 +43,63 @@
   </si>
   <si>
     <t>Alamat : Jln. Raden Intan No. 393  Wonodadi Kec. Gadingrejo, Kab. Pringsewu    Kode Pos 35372</t>
+  </si>
+  <si>
+    <t>JENIS
+BARANG / BANGUNAN</t>
+  </si>
+  <si>
+    <t>ASAL BARANG/ BANGUNAN</t>
+  </si>
+  <si>
+    <t>KEADAAN BARANG/
+BANGUNAN AWAL TAHUN</t>
+  </si>
+  <si>
+    <t>PENGHAPUSAN BARANG DAN BANGUNAN</t>
+  </si>
+  <si>
+    <t>KEADAAN BARANG/ BANGUNAN AKHIR TAHUN</t>
+  </si>
+  <si>
+    <t>DIBELI SENDIRI</t>
+  </si>
+  <si>
+    <t>BANTUAN</t>
+  </si>
+  <si>
+    <t>PEMERINTAH</t>
+  </si>
+  <si>
+    <t>PROVINSI</t>
+  </si>
+  <si>
+    <t>KAB/ KOTA</t>
+  </si>
+  <si>
+    <t>SUMBANGAN</t>
+  </si>
+  <si>
+    <t>BAIK</t>
+  </si>
+  <si>
+    <t>RUSAK</t>
+  </si>
+  <si>
+    <t>DIJUAL</t>
+  </si>
+  <si>
+    <t>DISUMBANGKAN</t>
+  </si>
+  <si>
+    <t>TGL PENGHAPUSAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +123,12 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -146,15 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -171,6 +196,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,16 +233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>529936</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>108759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>97675</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>398319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -231,8 +272,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="266700" y="53340"/>
-          <a:ext cx="678180" cy="990600"/>
+          <a:off x="1084118" y="108759"/>
+          <a:ext cx="676102" cy="982287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,10 +300,10 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -277,8 +318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="1516380"/>
-          <a:ext cx="10043160" cy="15240"/>
+          <a:off x="7620" y="1415079"/>
+          <a:ext cx="15062051" cy="1345"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -606,99 +647,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D5EE49-2923-40CE-BDDB-D9F424F5CDE1}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="F1" s="5" t="s">
+    <row r="1" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="F2" s="5" t="s">
+    <row r="7" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
